--- a/clean datasets/mergedset5.xlsx
+++ b/clean datasets/mergedset5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SLY\PycharmProjects\offensivedetection\clean datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2C5AA8-2179-4B2E-A37B-8F0EC9F046E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2416DAEF-A09F-48BD-8A2D-0FDCD40FF9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="945" windowWidth="16710" windowHeight="19845" xr2:uid="{8D731DCA-78C4-4CCE-930A-7E60E7D1EE1E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AFFC3466-E70E-42CB-B10C-063F76E5EB65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,42 +34,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>OFFENSIVE (Y or N)</t>
+  </si>
   <si>
     <t>Y</t>
   </si>
   <si>
+    <t>maganda</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>Dear Friend</t>
-  </si>
-  <si>
-    <t>Dear Money</t>
-  </si>
-  <si>
-    <t>Dear Lunch</t>
-  </si>
-  <si>
-    <t>Dear Friend Lunch</t>
-  </si>
-  <si>
-    <t>Dear Money Lunch</t>
-  </si>
-  <si>
-    <t>Dear</t>
-  </si>
-  <si>
-    <t>Dear Friend Money</t>
-  </si>
-  <si>
-    <t>Money</t>
+    <t>tae bobo</t>
+  </si>
+  <si>
+    <t>pogi</t>
+  </si>
+  <si>
+    <t>matalino mabait</t>
+  </si>
+  <si>
+    <t>masipag magalang atin</t>
+  </si>
+  <si>
+    <t>Nakakatakot naman ang ginawa ni tatay at dumugo pa ang kamay nya fuck</t>
+  </si>
+  <si>
+    <t>Naawa ako sa bata at sa magulang niya</t>
+  </si>
+  <si>
+    <t>Yan ung sunod na magdadala Ng pandemia sa</t>
+  </si>
+  <si>
+    <t>puta fuck gago</t>
+  </si>
+  <si>
+    <t>gago punyeta</t>
+  </si>
+  <si>
+    <t>bobo tarantado</t>
+  </si>
+  <si>
+    <t>bless kuya</t>
   </si>
 </sst>
 </file>
@@ -461,64 +473,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1802407-1453-4A32-96AA-3DFF10D15D24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE45E624-5FC0-4722-843B-9387FCFDE360}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="2" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -526,56 +538,54 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
